--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2186.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2186.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.04974327221719</v>
+        <v>1.027941584587097</v>
       </c>
       <c r="B1">
-        <v>1.791826986021818</v>
+        <v>1.732664465904236</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.948554067349794</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.9999931550827356</v>
+        <v>1.051704883575439</v>
       </c>
     </row>
   </sheetData>
